--- a/firebase_data_spyEnsembleVS.xlsx
+++ b/firebase_data_spyEnsembleVS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E493"/>
+  <dimension ref="A1:E494"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8813,11 +8813,28 @@
       <c r="B493" s="2" t="n">
         <v>45792.875</v>
       </c>
-      <c r="C493" t="inlineStr"/>
+      <c r="C493" t="n">
+        <v>1</v>
+      </c>
       <c r="D493" t="n">
         <v>1</v>
       </c>
-      <c r="E493" t="inlineStr"/>
+      <c r="E493" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" s="1" t="n">
+        <v>492</v>
+      </c>
+      <c r="B494" s="2" t="n">
+        <v>45793.47916666666</v>
+      </c>
+      <c r="C494" t="inlineStr"/>
+      <c r="D494" t="n">
+        <v>0</v>
+      </c>
+      <c r="E494" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
